--- a/StructureDefinition-MedicationFull.xlsx
+++ b/StructureDefinition-MedicationFull.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2730" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="231">
   <si>
     <t>Path</t>
   </si>
@@ -443,6 +443,9 @@
   <si>
     <t xml:space="preserve">Reference(MedicationKnowledge)
 </t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>MedicationFull.interactions.reaction</t>
@@ -1657,7 +1660,7 @@
         <v>57</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -5553,8 +5556,12 @@
       <c r="J47" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
+      <c r="K47" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -5624,7 +5631,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5650,10 +5657,10 @@
         <v>50</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5704,7 +5711,7 @@
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>38</v>
@@ -5724,7 +5731,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5750,10 +5757,10 @@
         <v>50</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5804,7 +5811,7 @@
         <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>38</v>
@@ -5824,7 +5831,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5847,13 +5854,13 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5904,7 +5911,7 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>38</v>
@@ -5924,7 +5931,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5950,10 +5957,10 @@
         <v>46</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6004,7 +6011,7 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>38</v>
@@ -6024,7 +6031,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6050,10 +6057,10 @@
         <v>124</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6104,7 +6111,7 @@
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>38</v>
@@ -6124,7 +6131,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6150,10 +6157,10 @@
         <v>124</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6204,7 +6211,7 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>38</v>
@@ -6224,7 +6231,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6250,10 +6257,10 @@
         <v>46</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6304,7 +6311,7 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>38</v>
@@ -6324,7 +6331,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6350,10 +6357,10 @@
         <v>46</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6404,7 +6411,7 @@
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>38</v>
@@ -6424,7 +6431,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6450,10 +6457,10 @@
         <v>61</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6504,7 +6511,7 @@
         <v>37</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>49</v>
@@ -6524,7 +6531,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6550,10 +6557,10 @@
         <v>46</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6604,7 +6611,7 @@
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>49</v>
@@ -6624,7 +6631,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6650,10 +6657,10 @@
         <v>50</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6704,7 +6711,7 @@
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>49</v>
@@ -6724,7 +6731,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6750,10 +6757,10 @@
         <v>61</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6804,7 +6811,7 @@
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>38</v>
@@ -6824,7 +6831,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6850,10 +6857,10 @@
         <v>139</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6904,7 +6911,7 @@
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>49</v>
@@ -6924,7 +6931,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6950,10 +6957,10 @@
         <v>50</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7004,7 +7011,7 @@
         <v>37</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>49</v>
@@ -7024,7 +7031,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7047,13 +7054,13 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7104,7 +7111,7 @@
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>49</v>
@@ -7124,7 +7131,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7150,10 +7157,10 @@
         <v>46</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7204,7 +7211,7 @@
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>49</v>
@@ -7224,7 +7231,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7250,10 +7257,10 @@
         <v>61</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7304,7 +7311,7 @@
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>38</v>
@@ -7324,7 +7331,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7404,7 +7411,7 @@
         <v>37</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>49</v>
@@ -7424,7 +7431,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7450,10 +7457,10 @@
         <v>50</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7504,7 +7511,7 @@
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>49</v>
@@ -7524,7 +7531,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7550,10 +7557,10 @@
         <v>124</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7604,7 +7611,7 @@
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>49</v>
@@ -7624,7 +7631,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7650,10 +7657,10 @@
         <v>46</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -7704,7 +7711,7 @@
         <v>37</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>38</v>
@@ -7724,7 +7731,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7747,13 +7754,13 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7804,7 +7811,7 @@
         <v>37</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>38</v>
@@ -7824,7 +7831,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7847,13 +7854,13 @@
         <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7904,7 +7911,7 @@
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>38</v>
@@ -7924,7 +7931,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7947,13 +7954,13 @@
         <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8004,7 +8011,7 @@
         <v>37</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>38</v>
@@ -8024,7 +8031,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8050,10 +8057,10 @@
         <v>46</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8104,7 +8111,7 @@
         <v>37</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>38</v>
@@ -8124,7 +8131,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8150,10 +8157,10 @@
         <v>61</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8204,7 +8211,7 @@
         <v>37</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>38</v>
@@ -8224,7 +8231,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8247,13 +8254,13 @@
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8304,7 +8311,7 @@
         <v>37</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>38</v>
@@ -8324,7 +8331,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8350,10 +8357,10 @@
         <v>46</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8404,7 +8411,7 @@
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>38</v>
@@ -8424,7 +8431,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8450,10 +8457,10 @@
         <v>46</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8504,7 +8511,7 @@
         <v>37</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>38</v>
@@ -8524,7 +8531,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8547,13 +8554,13 @@
         <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -8604,7 +8611,7 @@
         <v>37</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>38</v>
@@ -8624,7 +8631,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8650,10 +8657,10 @@
         <v>61</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -8704,7 +8711,7 @@
         <v>37</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>38</v>
@@ -8724,7 +8731,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -8750,10 +8757,10 @@
         <v>46</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -8804,7 +8811,7 @@
         <v>37</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>49</v>
@@ -8824,7 +8831,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -8850,10 +8857,10 @@
         <v>50</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -8904,7 +8911,7 @@
         <v>37</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>38</v>
@@ -8924,7 +8931,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -8947,13 +8954,13 @@
         <v>37</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9004,7 +9011,7 @@
         <v>37</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>49</v>
@@ -9024,7 +9031,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9047,13 +9054,13 @@
         <v>37</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9104,7 +9111,7 @@
         <v>37</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>38</v>
@@ -9124,7 +9131,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9147,13 +9154,13 @@
         <v>37</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9204,7 +9211,7 @@
         <v>37</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>38</v>
@@ -9224,7 +9231,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9247,13 +9254,13 @@
         <v>37</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9304,7 +9311,7 @@
         <v>37</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>38</v>
@@ -9324,7 +9331,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9350,10 +9357,10 @@
         <v>61</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -9404,7 +9411,7 @@
         <v>37</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>38</v>
@@ -9424,7 +9431,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -9450,10 +9457,10 @@
         <v>50</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -9504,7 +9511,7 @@
         <v>37</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>38</v>
@@ -9524,7 +9531,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -9547,13 +9554,13 @@
         <v>37</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -9604,7 +9611,7 @@
         <v>37</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>38</v>
@@ -9624,7 +9631,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -9647,13 +9654,13 @@
         <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -9704,7 +9711,7 @@
         <v>37</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>38</v>

--- a/StructureDefinition-MedicationFull.xlsx
+++ b/StructureDefinition-MedicationFull.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2732" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2733" uniqueCount="232">
   <si>
     <t>Path</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Medication Knowledge by me logical model</t>
+  </si>
+  <si>
+    <t>Medication Knowledge by me logical model.</t>
   </si>
   <si>
     <t>Base</t>
@@ -1061,7 +1064,9 @@
       <c r="K2" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="L2" s="2"/>
+      <c r="L2" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -1111,7 +1116,7 @@
         <v>37</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
         <v>38</v>
@@ -1131,7 +1136,7 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -1154,13 +1159,13 @@
         <v>37</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1211,7 +1216,7 @@
         <v>37</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>38</v>
@@ -1231,7 +1236,7 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1254,13 +1259,13 @@
         <v>37</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1311,7 +1316,7 @@
         <v>37</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>38</v>
@@ -1331,7 +1336,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1342,7 +1347,7 @@
         <v>38</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>37</v>
@@ -1354,13 +1359,13 @@
         <v>37</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1411,13 +1416,13 @@
         <v>37</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>37</v>
@@ -1431,7 +1436,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1442,7 +1447,7 @@
         <v>38</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>37</v>
@@ -1454,13 +1459,13 @@
         <v>37</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -1511,13 +1516,13 @@
         <v>37</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>37</v>
@@ -1531,7 +1536,7 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1542,7 +1547,7 @@
         <v>38</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>37</v>
@@ -1554,13 +1559,13 @@
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1611,13 +1616,13 @@
         <v>37</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AF7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>37</v>
@@ -1631,7 +1636,7 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1654,13 +1659,13 @@
         <v>37</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -1711,7 +1716,7 @@
         <v>37</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>38</v>
@@ -1731,7 +1736,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1754,13 +1759,13 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1811,7 +1816,7 @@
         <v>37</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>38</v>
@@ -1831,7 +1836,7 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
@@ -1839,7 +1844,7 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>39</v>
@@ -1854,13 +1859,13 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1911,10 +1916,10 @@
         <v>37</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>39</v>
@@ -1931,7 +1936,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1939,10 +1944,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>37</v>
@@ -1954,13 +1959,13 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -2011,13 +2016,13 @@
         <v>37</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>37</v>
@@ -2031,7 +2036,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2039,10 +2044,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>37</v>
@@ -2054,13 +2059,13 @@
         <v>37</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2111,13 +2116,13 @@
         <v>37</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>37</v>
@@ -2131,7 +2136,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2154,13 +2159,13 @@
         <v>37</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2211,7 +2216,7 @@
         <v>37</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>38</v>
@@ -2231,7 +2236,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2239,10 +2244,10 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>37</v>
@@ -2254,13 +2259,13 @@
         <v>37</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2311,13 +2316,13 @@
         <v>37</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>37</v>
@@ -2331,7 +2336,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2339,10 +2344,10 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
@@ -2354,13 +2359,13 @@
         <v>37</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2411,13 +2416,13 @@
         <v>37</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH15" t="s" s="2">
         <v>37</v>
@@ -2431,7 +2436,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2454,13 +2459,13 @@
         <v>37</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2511,7 +2516,7 @@
         <v>37</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>38</v>
@@ -2531,7 +2536,7 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2539,10 +2544,10 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>37</v>
@@ -2554,13 +2559,13 @@
         <v>37</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2611,13 +2616,13 @@
         <v>37</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>37</v>
@@ -2631,7 +2636,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2642,7 +2647,7 @@
         <v>38</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>37</v>
@@ -2654,13 +2659,13 @@
         <v>37</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2711,13 +2716,13 @@
         <v>37</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>37</v>
@@ -2731,7 +2736,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2739,10 +2744,10 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>37</v>
@@ -2754,13 +2759,13 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2811,13 +2816,13 @@
         <v>37</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>37</v>
@@ -2831,7 +2836,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2842,7 +2847,7 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>37</v>
@@ -2854,13 +2859,13 @@
         <v>37</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2911,13 +2916,13 @@
         <v>37</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>37</v>
@@ -2931,7 +2936,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2942,7 +2947,7 @@
         <v>38</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>37</v>
@@ -2954,13 +2959,13 @@
         <v>37</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3011,13 +3016,13 @@
         <v>37</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>37</v>
@@ -3031,7 +3036,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3042,7 +3047,7 @@
         <v>38</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>37</v>
@@ -3054,13 +3059,13 @@
         <v>37</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3111,13 +3116,13 @@
         <v>37</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>37</v>
@@ -3131,7 +3136,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3139,10 +3144,10 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>37</v>
@@ -3154,13 +3159,13 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3211,13 +3216,13 @@
         <v>37</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>37</v>
@@ -3231,7 +3236,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3239,10 +3244,10 @@
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>37</v>
@@ -3254,13 +3259,13 @@
         <v>37</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3311,13 +3316,13 @@
         <v>37</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>37</v>
@@ -3331,7 +3336,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3342,7 +3347,7 @@
         <v>38</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>37</v>
@@ -3354,13 +3359,13 @@
         <v>37</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3411,13 +3416,13 @@
         <v>37</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>37</v>
@@ -3431,7 +3436,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3439,10 +3444,10 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>37</v>
@@ -3454,13 +3459,13 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -3511,13 +3516,13 @@
         <v>37</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>37</v>
@@ -3531,7 +3536,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3539,10 +3544,10 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>37</v>
@@ -3554,13 +3559,13 @@
         <v>37</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3611,13 +3616,13 @@
         <v>37</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>37</v>
@@ -3631,7 +3636,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3642,7 +3647,7 @@
         <v>38</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
@@ -3654,13 +3659,13 @@
         <v>37</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -3711,13 +3716,13 @@
         <v>37</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>37</v>
@@ -3731,7 +3736,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3739,10 +3744,10 @@
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>37</v>
@@ -3754,13 +3759,13 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3811,13 +3816,13 @@
         <v>37</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>37</v>
@@ -3831,7 +3836,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3839,10 +3844,10 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>37</v>
@@ -3854,13 +3859,13 @@
         <v>37</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3911,13 +3916,13 @@
         <v>37</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>37</v>
@@ -3931,7 +3936,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3942,7 +3947,7 @@
         <v>38</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>37</v>
@@ -3954,13 +3959,13 @@
         <v>37</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4011,13 +4016,13 @@
         <v>37</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>37</v>
@@ -4031,7 +4036,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4039,10 +4044,10 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>37</v>
@@ -4054,13 +4059,13 @@
         <v>37</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4111,13 +4116,13 @@
         <v>37</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>37</v>
@@ -4131,7 +4136,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4139,10 +4144,10 @@
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>37</v>
@@ -4154,13 +4159,13 @@
         <v>37</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4211,13 +4216,13 @@
         <v>37</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>37</v>
@@ -4231,7 +4236,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4242,7 +4247,7 @@
         <v>38</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>37</v>
@@ -4254,13 +4259,13 @@
         <v>37</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4311,13 +4316,13 @@
         <v>37</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>37</v>
@@ -4331,7 +4336,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4354,13 +4359,13 @@
         <v>37</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4411,7 +4416,7 @@
         <v>37</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>38</v>
@@ -4431,7 +4436,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4442,7 +4447,7 @@
         <v>38</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>37</v>
@@ -4454,13 +4459,13 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -4511,13 +4516,13 @@
         <v>37</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>37</v>
@@ -4531,7 +4536,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4539,10 +4544,10 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>37</v>
@@ -4554,13 +4559,13 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4611,13 +4616,13 @@
         <v>37</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>37</v>
@@ -4631,7 +4636,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4639,10 +4644,10 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>37</v>
@@ -4654,13 +4659,13 @@
         <v>37</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -4711,13 +4716,13 @@
         <v>37</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>37</v>
@@ -4731,7 +4736,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4742,7 +4747,7 @@
         <v>38</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>37</v>
@@ -4754,13 +4759,13 @@
         <v>37</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4811,13 +4816,13 @@
         <v>37</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
@@ -4831,7 +4836,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -4842,7 +4847,7 @@
         <v>38</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>37</v>
@@ -4854,13 +4859,13 @@
         <v>37</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4911,13 +4916,13 @@
         <v>37</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>37</v>
@@ -4931,7 +4936,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4942,7 +4947,7 @@
         <v>38</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>37</v>
@@ -4954,13 +4959,13 @@
         <v>37</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5011,13 +5016,13 @@
         <v>37</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>37</v>
@@ -5031,7 +5036,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5042,7 +5047,7 @@
         <v>38</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>37</v>
@@ -5054,13 +5059,13 @@
         <v>37</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5111,13 +5116,13 @@
         <v>37</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>37</v>
@@ -5131,7 +5136,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5142,7 +5147,7 @@
         <v>38</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>37</v>
@@ -5154,13 +5159,13 @@
         <v>37</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -5211,13 +5216,13 @@
         <v>37</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>37</v>
@@ -5231,7 +5236,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5254,13 +5259,13 @@
         <v>37</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5311,7 +5316,7 @@
         <v>37</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>38</v>
@@ -5331,7 +5336,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -5354,13 +5359,13 @@
         <v>37</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5411,7 +5416,7 @@
         <v>37</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>38</v>
@@ -5431,7 +5436,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5439,10 +5444,10 @@
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>37</v>
@@ -5454,13 +5459,13 @@
         <v>37</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -5511,13 +5516,13 @@
         <v>37</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>37</v>
@@ -5531,7 +5536,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5539,10 +5544,10 @@
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>37</v>
@@ -5554,13 +5559,13 @@
         <v>37</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5611,13 +5616,13 @@
         <v>37</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>37</v>
@@ -5631,7 +5636,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5642,7 +5647,7 @@
         <v>38</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>37</v>
@@ -5654,13 +5659,13 @@
         <v>37</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -5711,13 +5716,13 @@
         <v>37</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>37</v>
@@ -5731,7 +5736,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5742,7 +5747,7 @@
         <v>38</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>37</v>
@@ -5754,13 +5759,13 @@
         <v>37</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5811,13 +5816,13 @@
         <v>37</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>37</v>
@@ -5831,7 +5836,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -5854,13 +5859,13 @@
         <v>37</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5911,7 +5916,7 @@
         <v>37</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>38</v>
@@ -5931,7 +5936,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5954,13 +5959,13 @@
         <v>37</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -6011,7 +6016,7 @@
         <v>37</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>38</v>
@@ -6031,7 +6036,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6054,13 +6059,13 @@
         <v>37</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6111,7 +6116,7 @@
         <v>37</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>38</v>
@@ -6131,7 +6136,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6154,13 +6159,13 @@
         <v>37</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -6211,7 +6216,7 @@
         <v>37</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>38</v>
@@ -6231,7 +6236,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6254,13 +6259,13 @@
         <v>37</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6311,7 +6316,7 @@
         <v>37</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>38</v>
@@ -6331,7 +6336,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -6354,13 +6359,13 @@
         <v>37</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6411,7 +6416,7 @@
         <v>37</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>38</v>
@@ -6431,7 +6436,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6439,7 +6444,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>39</v>
@@ -6454,13 +6459,13 @@
         <v>37</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -6511,10 +6516,10 @@
         <v>37</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>39</v>
@@ -6531,7 +6536,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6539,10 +6544,10 @@
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>37</v>
@@ -6554,13 +6559,13 @@
         <v>37</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6611,13 +6616,13 @@
         <v>37</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>37</v>
@@ -6631,7 +6636,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6639,10 +6644,10 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>37</v>
@@ -6654,13 +6659,13 @@
         <v>37</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -6711,13 +6716,13 @@
         <v>37</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>37</v>
@@ -6731,7 +6736,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6754,13 +6759,13 @@
         <v>37</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6811,7 +6816,7 @@
         <v>37</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>38</v>
@@ -6831,7 +6836,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -6839,10 +6844,10 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>37</v>
@@ -6854,13 +6859,13 @@
         <v>37</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6911,13 +6916,13 @@
         <v>37</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>37</v>
@@ -6931,7 +6936,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6939,10 +6944,10 @@
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>37</v>
@@ -6954,13 +6959,13 @@
         <v>37</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -7011,13 +7016,13 @@
         <v>37</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>37</v>
@@ -7031,7 +7036,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -7039,10 +7044,10 @@
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>37</v>
@@ -7054,13 +7059,13 @@
         <v>37</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7111,13 +7116,13 @@
         <v>37</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>37</v>
@@ -7131,7 +7136,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7139,10 +7144,10 @@
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>37</v>
@@ -7154,13 +7159,13 @@
         <v>37</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -7211,13 +7216,13 @@
         <v>37</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>37</v>
@@ -7231,7 +7236,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7242,7 +7247,7 @@
         <v>38</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>37</v>
@@ -7254,13 +7259,13 @@
         <v>37</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7311,13 +7316,13 @@
         <v>37</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>37</v>
@@ -7331,7 +7336,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -7339,10 +7344,10 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>37</v>
@@ -7354,13 +7359,13 @@
         <v>37</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7411,13 +7416,13 @@
         <v>37</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>37</v>
@@ -7431,7 +7436,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7439,10 +7444,10 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>37</v>
@@ -7454,13 +7459,13 @@
         <v>37</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -7511,13 +7516,13 @@
         <v>37</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>37</v>
@@ -7531,7 +7536,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7539,10 +7544,10 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>37</v>
@@ -7554,13 +7559,13 @@
         <v>37</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7611,13 +7616,13 @@
         <v>37</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>37</v>
@@ -7631,7 +7636,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7642,7 +7647,7 @@
         <v>38</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>37</v>
@@ -7654,13 +7659,13 @@
         <v>37</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -7711,13 +7716,13 @@
         <v>37</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>37</v>
@@ -7731,7 +7736,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7742,7 +7747,7 @@
         <v>38</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>37</v>
@@ -7754,13 +7759,13 @@
         <v>37</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7811,13 +7816,13 @@
         <v>37</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>37</v>
@@ -7831,7 +7836,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -7854,13 +7859,13 @@
         <v>37</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7911,7 +7916,7 @@
         <v>37</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>38</v>
@@ -7931,7 +7936,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7954,13 +7959,13 @@
         <v>37</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -8011,7 +8016,7 @@
         <v>37</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>38</v>
@@ -8031,7 +8036,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8042,7 +8047,7 @@
         <v>38</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>37</v>
@@ -8054,13 +8059,13 @@
         <v>37</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8111,13 +8116,13 @@
         <v>37</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>37</v>
@@ -8131,7 +8136,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8154,13 +8159,13 @@
         <v>37</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -8211,7 +8216,7 @@
         <v>37</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>38</v>
@@ -8231,7 +8236,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8242,7 +8247,7 @@
         <v>38</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>37</v>
@@ -8254,13 +8259,13 @@
         <v>37</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8311,13 +8316,13 @@
         <v>37</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>37</v>
@@ -8331,7 +8336,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -8342,7 +8347,7 @@
         <v>38</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>37</v>
@@ -8354,13 +8359,13 @@
         <v>37</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8411,13 +8416,13 @@
         <v>37</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>37</v>
@@ -8431,7 +8436,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8442,7 +8447,7 @@
         <v>38</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>37</v>
@@ -8454,13 +8459,13 @@
         <v>37</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -8511,13 +8516,13 @@
         <v>37</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>37</v>
@@ -8531,7 +8536,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8542,7 +8547,7 @@
         <v>38</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>37</v>
@@ -8554,13 +8559,13 @@
         <v>37</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -8611,13 +8616,13 @@
         <v>37</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>37</v>
@@ -8631,7 +8636,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8642,7 +8647,7 @@
         <v>38</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>37</v>
@@ -8654,13 +8659,13 @@
         <v>37</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -8711,13 +8716,13 @@
         <v>37</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>37</v>
@@ -8731,7 +8736,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -8739,10 +8744,10 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>37</v>
@@ -8754,13 +8759,13 @@
         <v>37</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -8811,13 +8816,13 @@
         <v>37</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>37</v>
@@ -8831,7 +8836,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -8842,7 +8847,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>37</v>
@@ -8854,13 +8859,13 @@
         <v>37</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -8911,13 +8916,13 @@
         <v>37</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>37</v>
@@ -8931,7 +8936,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -8939,10 +8944,10 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>37</v>
@@ -8954,13 +8959,13 @@
         <v>37</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -9011,13 +9016,13 @@
         <v>37</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>37</v>
@@ -9031,7 +9036,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9042,7 +9047,7 @@
         <v>38</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>37</v>
@@ -9054,13 +9059,13 @@
         <v>37</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -9111,13 +9116,13 @@
         <v>37</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>37</v>
@@ -9131,7 +9136,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -9142,7 +9147,7 @@
         <v>38</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>37</v>
@@ -9154,13 +9159,13 @@
         <v>37</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -9211,13 +9216,13 @@
         <v>37</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>37</v>
@@ -9231,7 +9236,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -9254,13 +9259,13 @@
         <v>37</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -9311,7 +9316,7 @@
         <v>37</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>38</v>
@@ -9331,7 +9336,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -9342,7 +9347,7 @@
         <v>38</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>37</v>
@@ -9354,13 +9359,13 @@
         <v>37</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -9411,13 +9416,13 @@
         <v>37</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>37</v>
@@ -9431,7 +9436,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -9442,7 +9447,7 @@
         <v>38</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>37</v>
@@ -9454,13 +9459,13 @@
         <v>37</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -9511,13 +9516,13 @@
         <v>37</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>37</v>
@@ -9531,7 +9536,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -9542,7 +9547,7 @@
         <v>38</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>37</v>
@@ -9554,13 +9559,13 @@
         <v>37</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -9611,13 +9616,13 @@
         <v>37</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>37</v>
@@ -9631,7 +9636,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -9654,13 +9659,13 @@
         <v>37</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -9711,7 +9716,7 @@
         <v>37</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>38</v>
